--- a/RatesModelResutls.xlsx
+++ b/RatesModelResutls.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iowa-my.sharepoint.com/personal/martie_uiowa_edu/Documents/Work/ISRP/Project5/David/PCB-Aerobic-Bioaugmentation-Study2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="8_{7AF7E36B-48A0-5045-B7F3-8763826427FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7691608E-8BF6-4247-BC55-F2056EC2B17F}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="8_{7AF7E36B-48A0-5045-B7F3-8763826427FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{094FCF21-BC2F-9E43-8A25-52A10FF8EC2F}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="660" windowWidth="19440" windowHeight="15600" xr2:uid="{79421F87-B99E-E14D-848D-4518DE51D9BC}"/>
+    <workbookView xWindow="1380" yWindow="1100" windowWidth="28020" windowHeight="16900" xr2:uid="{79421F87-B99E-E14D-848D-4518DE51D9BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -138,12 +138,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -161,8 +167,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,19 +503,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06C6206-0C16-D642-BE16-5F865438D4E8}">
-  <dimension ref="B1:Q21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
@@ -517,11 +523,11 @@
     <col min="13" max="13" width="5" customWidth="1"/>
     <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>24</v>
       </c>
@@ -571,7 +577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -618,7 +624,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>25</v>
       </c>
@@ -665,200 +671,203 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>223.08799999999999</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>4.6500000000000004</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4">
         <v>1.3441420000000001E-2</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4">
         <v>0.04</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3" t="s">
+      <c r="M4" s="1"/>
+      <c r="N4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4">
         <v>-0.67</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4">
         <v>0.94</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <v>223.08799999999999</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <v>4.6500000000000004</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5">
         <v>1.3441420000000001E-2</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5">
         <v>0.03</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5">
         <v>0.17</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5">
         <v>3</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5">
         <v>0.54</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5">
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>257.5</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>5.25</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>1.5256156999999999E-2</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <v>2.5</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
         <v>0.01</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6">
+      <c r="M6" s="3"/>
+      <c r="N6" s="2">
         <v>10</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="2">
         <v>0.62</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="2">
         <v>0.99</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>257.5</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>5.25</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>1.5256156999999999E-2</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <v>2.5</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <v>0.01</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <v>0.15</v>
       </c>
-      <c r="N7">
+      <c r="M7" s="2"/>
+      <c r="N7" s="2">
         <v>10</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="2">
         <v>0.47</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="2">
         <v>0.73</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>25</v>
       </c>
@@ -881,7 +890,7 @@
         <v>1.5256156999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -904,7 +913,7 @@
         <v>1.5256156999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -952,7 +961,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -999,7 +1008,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -1021,14 +1030,14 @@
       <c r="H12">
         <v>1.8048667000000001E-2</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="O12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -1050,14 +1059,14 @@
       <c r="H13">
         <v>1.8048667000000001E-2</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="O13" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -1105,7 +1114,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -1152,7 +1161,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>25</v>
       </c>
